--- a/Doc/炼金系统.xlsx
+++ b/Doc/炼金系统.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+  <si>
+    <t>各个系统可进行升级</t>
+  </si>
   <si>
     <t>武器锻造</t>
   </si>
@@ -24,13 +27,25 @@
     <t>根据材料表将材料投入熔炉中，进行锤炼，过热需要取出过冷需要加热（类似钓鱼），完美达成有属性奖赏，材料表放置于右侧，需要手动投入（不同等级以及不同类型的材料对温度敏感不同，锤炼次数以及强度还有冷却速度都不同）</t>
   </si>
   <si>
+    <t>简易锤炼，快速锤炼，成品增强</t>
+  </si>
+  <si>
     <t>装备附魔</t>
   </si>
   <si>
+    <t>符文轮盘，符文出现的概率和频率以及飘过的速度根据投入材料的不同而不同，给装备提供各种加成</t>
+  </si>
+  <si>
+    <t>增加稀有符文，增加稀有符文频率，减少耗材</t>
+  </si>
+  <si>
     <t>仆魔炼成</t>
   </si>
   <si>
-    <t>仆魔的获取需要进行怪物的击杀及灵魂封印，灵魂封印需要消耗空白灵魂石，有概率获得不高于怪物品质的灵魂（用低于怪物品质的灵魂石封印有较大概率失败或降级至灵魂石品质），可出仆魔属性根据投入的灵魂石搭配以及材料的不同有所不同。仆魔有自身特性技能（暂定九格，其中有劣等基因也有优等基因）相同仆魔进行合成则将基因图谱进行融合，九格中相连的数条基因（依照不同的材料投入可挑选继承条数不同）和主材基因相叠，相同的基因相连有加成，相同的基因相叠有概率提升对应基因等级，不同基因相叠会发生变异，可能出现稀有基因以及劣等基因。</t>
+    <t>仆魔的获取需要进行怪物的击杀及灵魂封印，灵魂封印需要消耗空白灵魂石，有概率获得不高于怪物品质的灵魂（用低于怪物品质的灵魂石封印有较大概率失败或降级至灵魂石品质），可出仆魔属性根据投入的灵魂石搭配以及材料的不同有所不同。仆魔有自身特性技能（暂定九格，其中有劣等基因也有优等基因）相同仆魔进行合成则将基因图谱进行融合，九格中相连的数条基因（依照不同的材料投入可挑选继承条数不同）和主材基因相叠，相同的基因相连有加成，相同的基因相叠有概率提升对应基因等级，不同基因相叠会发生变异，可能出现稀有基因以及劣等基因。（大致可参考：第三次生日）</t>
+  </si>
+  <si>
+    <t>提高概率，增加变异，减少变异</t>
   </si>
   <si>
     <t>道具炼成</t>
@@ -39,10 +54,16 @@
     <t>每个材料都有不同波长和波值，可以进行调整，波段相合时有加成，低于一定同调率有概率失败</t>
   </si>
   <si>
+    <t>效果加成</t>
+  </si>
+  <si>
     <t>技能炼成</t>
   </si>
   <si>
     <t>技能炼成后根据仆魔的属性不同可装备性不同。装备后的强度和次数有所不同。</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
 </sst>
 </file>
@@ -51,11 +72,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +86,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -72,12 +107,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -86,14 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -103,37 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,67 +228,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -224,13 +238,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,19 +376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,73 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,61 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,20 +449,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,24 +497,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,162 +520,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1020,53 +1040,77 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="100.5" customWidth="1"/>
+    <col min="3" max="3" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="48" customHeight="1" spans="1:2">
+    <row r="1" spans="3:3">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="48" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" ht="42" customHeight="1" spans="1:1">
+    <row r="3" ht="42" customHeight="1" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" ht="74" customHeight="1" spans="1:2">
+    <row r="4" ht="74" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" ht="78" customHeight="1" spans="1:2">
+    <row r="5" ht="78" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2">
+    <row r="6" ht="25" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
